--- a/car_insurance_listings.xlsx
+++ b/car_insurance_listings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choll\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED9B9D0-92D5-4A46-853A-44980390722E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931FFC33-D07C-4246-875E-72A4844301D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
   <si>
     <t>Name_of_listing</t>
   </si>
@@ -31,12 +31,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>website-href</t>
-  </si>
-  <si>
-    <t>email-href</t>
-  </si>
-  <si>
     <t>State Farm Insurance</t>
   </si>
   <si>
@@ -232,9 +226,6 @@
     <t>7 Chatham Sq Rm 701New York, NY 10038</t>
   </si>
   <si>
-    <t>Chan Corina in New York, NY</t>
-  </si>
-  <si>
     <t>Idone E J &amp; Co</t>
   </si>
   <si>
@@ -389,6 +380,12 @@
   </si>
   <si>
     <t>info@kingsbrookny.com</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>E-Mail address</t>
   </si>
 </sst>
 </file>
@@ -412,7 +409,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -420,29 +417,358 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -453,6 +779,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4D10EDA-4A32-4389-A5A5-350A29F69113}" name="Table1" displayName="Table1" ref="A2:E34" headerRowCount="0" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0397F24C-EDE1-45AD-8E71-439AD1D6F68E}" name="Column1" headerRowDxfId="0" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{7E21A4AA-C7B0-4E7E-B895-C64BCFB668A0}" name="Column2" headerRowDxfId="1" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F911A2D7-0A71-4904-8CC9-D0D00DE66CD7}" name="Column3" headerRowDxfId="2" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{B1447601-659E-4CA8-B184-B3F99DB4F3AF}" name="Column4" headerRowDxfId="3" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{088CE9E0-6D37-4E54-B15D-826F5EB7115A}" name="Column5" headerRowDxfId="4" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -755,598 +1094,597 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="43.1875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.1875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="43.1875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.1875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="E11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="2" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="2" t="s">
+    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="2" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="2" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A34" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A34" s="1" t="s">
+      <c r="D34" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>9</v>
+      <c r="E34" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:E34">
+    <cfRule type="containsBlanks" dxfId="16" priority="4">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>